--- a/przedsionek/xlsx/fundament_przybudówki_pln.xlsx
+++ b/przedsionek/xlsx/fundament_przybudówki_pln.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="225">
   <si>
     <t xml:space="preserve">beton z gruszki, m3</t>
   </si>
@@ -719,10 +719,16 @@
     <t xml:space="preserve">plastyfikator do betonu</t>
   </si>
   <si>
+    <t xml:space="preserve">piła tarczowa Graphite</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.google.com/search?q=wozimypiasek&amp;oq=wozimypiasek&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIPCAEQLhgNGK8BGMcBGIAEMggIAhAAGA0YHjIICAMQABgNGB4yCAgEEAAYDRgeMggIBRAAGA0YHjIKCAYQABiABBiiBDIGCAcQRRg80gEKMTU5NjhqMGoxNagCCLACAQ&amp;sourceid=chrome&amp;ie=UTF-8#lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0</t>
   </si>
   <si>
     <t xml:space="preserve">zwir [t]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deski do szalowania</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -767,13 +773,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -821,7 +820,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -886,10 +885,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -908,10 +903,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3207,7 +3198,7 @@
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8490" topLeftCell="L76" activePane="topLeft" state="split"/>
+      <pane xSplit="0" ySplit="8520" topLeftCell="L76" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="M81" activeCellId="0" sqref="M81"/>
       <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
@@ -3218,7 +3209,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="22.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="35.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="16" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3303,7 +3294,7 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -3945,10 +3936,10 @@
       <c r="E66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J67" s="18" t="s">
+      <c r="J67" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="L67" s="18" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3997,7 +3988,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J74" s="18" t="s">
+      <c r="J74" s="17" t="s">
         <v>174</v>
       </c>
       <c r="L74" s="10" t="s">
@@ -4026,7 +4017,7 @@
         <f aca="false">K77*25</f>
         <v>1400</v>
       </c>
-      <c r="L78" s="19" t="s">
+      <c r="L78" s="18" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4038,7 +4029,7 @@
         <f aca="false">(B16+B51)</f>
         <v>2.24</v>
       </c>
-      <c r="L79" s="20"/>
+      <c r="L79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="5" t="s">
@@ -4048,10 +4039,10 @@
         <f aca="false">K79 * K63</f>
         <v>3.584</v>
       </c>
-      <c r="L80" s="19" t="s">
+      <c r="L80" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="M80" s="16" t="n">
+      <c r="M80" s="2" t="n">
         <f aca="false">K80*1.35</f>
         <v>4.8384</v>
       </c>
@@ -4073,7 +4064,7 @@
         <f aca="false">K81*K64</f>
         <v>6.3</v>
       </c>
-      <c r="M82" s="16" t="n">
+      <c r="M82" s="2" t="n">
         <f aca="false">K82*1.35</f>
         <v>8.505</v>
       </c>
@@ -4117,11 +4108,11 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="10980" topLeftCell="A5" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="11025" topLeftCell="A5" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4277,7 +4268,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -4292,7 +4283,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>198</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -4307,7 +4298,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>199</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -4322,7 +4313,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>200</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -4343,25 +4334,25 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
@@ -4485,14 +4476,14 @@
         <v>210</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>12.45</v>
       </c>
       <c r="D35" s="2" t="n">
         <f aca="false">B35*C35</f>
-        <v>99.6</v>
+        <v>149.4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,71 +4649,107 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="D48" s="2" t="n">
-        <f aca="false">B48*C48</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="2" t="n">
+        <f aca="false">B49*C49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="11" t="n">
-        <f aca="false">SUM(D9:D34)</f>
-        <v>3660.56</v>
-      </c>
-    </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="11"/>
+      <c r="D50" s="2" t="n">
+        <f aca="false">B50*C50</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="11"/>
+      <c r="D51" s="2" t="n">
+        <f aca="false">B51*C51</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="11"/>
+      <c r="D52" s="2" t="n">
+        <f aca="false">B52*C52</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="11"/>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="2" t="n">
+        <f aca="false">B53*C53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="11" t="n">
+        <f aca="false">SUM(D9:D53)</f>
+        <v>4456.45</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="11"/>
+      <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="11"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="11"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B61" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="D61" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="2" t="n">
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="2" t="n">
-        <f aca="false">SUM(D49:D58)</f>
-        <v>5360.56</v>
+      <c r="D62" s="2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="2" t="n">
+        <f aca="false">SUM(D54:D63)</f>
+        <v>6556.45</v>
       </c>
     </row>
   </sheetData>
@@ -4738,7 +4765,7 @@
     <hyperlink ref="E28" r:id="rId9" display="https://eadamex.pl/cement/18060-cement-i-ozarow-czysty-425-25kg.html"/>
     <hyperlink ref="E29" r:id="rId10" display="https://eadamex.pl/pistolety-i-wyciskacze/16929-pistolet-do-pianki-montazowej-expert-line-tp004-00008044.html"/>
     <hyperlink ref="E30" r:id="rId11" display="https://eadamex.pl/prety-stalowe/7173-pret-zebrowany-12-stal-12m-5900000007335.html"/>
-    <hyperlink ref="E56" r:id="rId12" location="lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0" display="https://www.google.com/search?q=wozimypiasek&amp;oq=wozimypiasek&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIPCAEQLhgNGK8BGMcBGIAEMggIAhAAGA0YHjIICAMQABgNGB4yCAgEEAAYDRgeMggIBRAAGA0YHjIKCAYQABiABBiiBDIGCAcQRRg80gEKMTU5NjhqMGoxNagCCLACAQ&amp;sourceid=chrome&amp;ie=UTF-8#lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0"/>
+    <hyperlink ref="E61" r:id="rId12" location="lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0" display="https://www.google.com/search?q=wozimypiasek&amp;oq=wozimypiasek&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIPCAEQLhgNGK8BGMcBGIAEMggIAhAAGA0YHjIICAMQABgNGB4yCAgEEAAYDRgeMggIBRAAGA0YHjIKCAYQABiABBiiBDIGCAcQRRg80gEKMTU5NjhqMGoxNagCCLACAQ&amp;sourceid=chrome&amp;ie=UTF-8#lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/przedsionek/xlsx/fundament_przybudówki_pln.xlsx
+++ b/przedsionek/xlsx/fundament_przybudówki_pln.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="227">
   <si>
     <t xml:space="preserve">beton z gruszki, m3</t>
   </si>
@@ -689,6 +689,9 @@
     <t xml:space="preserve">zaprawa murarska kreisel</t>
   </si>
   <si>
+    <t xml:space="preserve">zaprawa murarska Atlas</t>
+  </si>
+  <si>
     <t xml:space="preserve">sznurek murarski</t>
   </si>
   <si>
@@ -720,6 +723,9 @@
   </si>
   <si>
     <t xml:space="preserve">piła tarczowa Graphite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paliwo</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.google.com/search?q=wozimypiasek&amp;oq=wozimypiasek&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIPCAEQLhgNGK8BGMcBGIAEMggIAhAAGA0YHjIICAMQABgNGB4yCAgEEAAYDRgeMggIBRAAGA0YHjIKCAYQABiABBiiBDIGCAcQRRg80gEKMTU5NjhqMGoxNagCCLACAQ&amp;sourceid=chrome&amp;ie=UTF-8#lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0</t>
@@ -3198,7 +3204,7 @@
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8520" topLeftCell="L76" activePane="topLeft" state="split"/>
+      <pane xSplit="0" ySplit="8550" topLeftCell="L76" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="M81" activeCellId="0" sqref="M81"/>
       <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
@@ -4108,11 +4114,11 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="11025" topLeftCell="A5" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="11070" topLeftCell="A5" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4491,14 +4497,14 @@
         <v>211</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>6</v>
+        <v>15.25</v>
       </c>
       <c r="D36" s="2" t="n">
         <f aca="false">B36*C36</f>
-        <v>6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,11 +4515,11 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>59.8</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2" t="n">
         <f aca="false">B37*C37</f>
-        <v>59.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,14 +4527,14 @@
         <v>213</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>61.95</v>
+        <v>59.8</v>
       </c>
       <c r="D38" s="2" t="n">
         <f aca="false">B38*C38</f>
-        <v>123.9</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,14 +4542,14 @@
         <v>214</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>32.95</v>
+        <v>61.95</v>
       </c>
       <c r="D39" s="2" t="n">
         <f aca="false">B39*C39</f>
-        <v>32.95</v>
+        <v>123.9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,14 +4557,14 @@
         <v>215</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>20.2</v>
+        <v>32.95</v>
       </c>
       <c r="D40" s="2" t="n">
         <f aca="false">B40*C40</f>
-        <v>40.4</v>
+        <v>32.95</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,14 +4572,14 @@
         <v>216</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>7</v>
+        <v>20.2</v>
       </c>
       <c r="D41" s="2" t="n">
         <f aca="false">B41*C41</f>
-        <v>7</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,32 +4590,32 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>14.44</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="n">
         <f aca="false">B42*C42</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="n">
         <v>14.44</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="2" t="n">
         <f aca="false">B43*C43</f>
-        <v>0</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>49</v>
-      </c>
       <c r="D44" s="2" t="n">
         <f aca="false">B44*C44</f>
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,14 +4623,14 @@
         <v>219</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>5.9</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2" t="n">
         <f aca="false">B45*C45</f>
-        <v>17.7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,40 +4638,51 @@
         <v>220</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1.15</v>
+        <v>5.9</v>
       </c>
       <c r="D46" s="2" t="n">
         <f aca="false">B46*C46</f>
-        <v>25.3</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1.15</v>
+      </c>
       <c r="D47" s="2" t="n">
         <f aca="false">B47*C47</f>
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="2" t="n">
+        <f aca="false">B48*C48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" s="2" t="n">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>270</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="2" t="n">
-        <f aca="false">B49*C49</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="D50" s="2" t="n">
-        <f aca="false">B50*C50</f>
-        <v>0</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,13 +4704,16 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="11" t="n">
-        <f aca="false">SUM(D9:D53)</f>
-        <v>4456.45</v>
+      <c r="D54" s="2" t="n">
+        <f aca="false">B54*C54</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="11"/>
+      <c r="D55" s="11" t="n">
+        <f aca="false">SUM(D9:D54)</f>
+        <v>5023.45</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="11"/>
@@ -4703,53 +4723,56 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="11"/>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="11"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>222</v>
-      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="B62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D63" s="2" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="n">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="2" t="n">
-        <f aca="false">SUM(D54:D63)</f>
-        <v>6556.45</v>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="2" t="n">
+        <f aca="false">SUM(D55:D64)</f>
+        <v>7123.45</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4788,7 @@
     <hyperlink ref="E28" r:id="rId9" display="https://eadamex.pl/cement/18060-cement-i-ozarow-czysty-425-25kg.html"/>
     <hyperlink ref="E29" r:id="rId10" display="https://eadamex.pl/pistolety-i-wyciskacze/16929-pistolet-do-pianki-montazowej-expert-line-tp004-00008044.html"/>
     <hyperlink ref="E30" r:id="rId11" display="https://eadamex.pl/prety-stalowe/7173-pret-zebrowany-12-stal-12m-5900000007335.html"/>
-    <hyperlink ref="E61" r:id="rId12" location="lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0" display="https://www.google.com/search?q=wozimypiasek&amp;oq=wozimypiasek&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIPCAEQLhgNGK8BGMcBGIAEMggIAhAAGA0YHjIICAMQABgNGB4yCAgEEAAYDRgeMggIBRAAGA0YHjIKCAYQABiABBiiBDIGCAcQRRg80gEKMTU5NjhqMGoxNagCCLACAQ&amp;sourceid=chrome&amp;ie=UTF-8#lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0"/>
+    <hyperlink ref="E62" r:id="rId12" location="lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0" display="https://www.google.com/search?q=wozimypiasek&amp;oq=wozimypiasek&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIPCAEQLhgNGK8BGMcBGIAEMggIAhAAGA0YHjIICAMQABgNGB4yCAgEEAAYDRgeMggIBRAAGA0YHjIKCAYQABiABBiiBDIGCAcQRRg80gEKMTU5NjhqMGoxNagCCLACAQ&amp;sourceid=chrome&amp;ie=UTF-8#lpg=cid:CgIgAQ%3D%3D,ik:CAoSLEFGMVFpcE1qMFdmYTBteE56Q3FNdVdxWV94eFBETmNoTkg2OERVYWZ0cWt0"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/przedsionek/xlsx/fundament_przybudówki_pln.xlsx
+++ b/przedsionek/xlsx/fundament_przybudówki_pln.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="236">
   <si>
     <t xml:space="preserve">beton z gruszki, m3</t>
   </si>
@@ -611,6 +611,33 @@
     <t xml:space="preserve">piasek zasypowy [t]</t>
   </si>
   <si>
+    <t xml:space="preserve">bilans piasku płukanego [m3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilans żwiru [m3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objętość obrzeża tarasu [m3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powierzcnioa obrzeża [m2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grubosć chudziaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oibjętość chudziaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piasek zasypowy do kupienia [m3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piasek zasypowy do kupienia [t]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">792 459 955</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adamów 40/1</t>
   </si>
   <si>
@@ -747,7 +774,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -782,6 +809,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -826,7 +858,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,6 +937,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3201,12 +3237,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8550" topLeftCell="L76" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="M81" activeCellId="0" sqref="M81"/>
-      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8580" topLeftCell="L58" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="J96" activeCellId="0" sqref="J96"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4091,6 +4127,79 @@
       <c r="K85" s="2" t="n">
         <f aca="false">K84*K63</f>
         <v>15.36</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J88" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J89" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J90" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J91" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <f aca="false">2.72*7.9</f>
+        <v>21.488</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J92" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <f aca="false">K91*K92</f>
+        <v>2.1488</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J94" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <f aca="false">(K90-K88-K89)*1.1</f>
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J95" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <f aca="false">K94*K64</f>
+        <v>8.316</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J96" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4116,10 +4225,8 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="11070" topLeftCell="A5" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4131,12 +4238,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,7 +4258,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>2</v>
@@ -4161,7 +4273,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
@@ -4176,7 +4288,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
@@ -4197,7 +4309,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>2</v>
@@ -4210,12 +4322,12 @@
         <v>20.8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1</v>
@@ -4228,12 +4340,12 @@
         <v>12.6</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
@@ -4246,12 +4358,12 @@
         <v>24.75</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
@@ -4264,7 +4376,7 @@
         <v>75</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,8 +4386,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>197</v>
+      <c r="A18" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
@@ -4289,8 +4401,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
-        <v>198</v>
+      <c r="A19" s="21" t="s">
+        <v>207</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>8</v>
@@ -4304,8 +4416,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
-        <v>199</v>
+      <c r="A20" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>1</v>
@@ -4319,8 +4431,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
-        <v>200</v>
+      <c r="A21" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>1</v>
@@ -4362,7 +4474,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>270</v>
@@ -4377,7 +4489,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
@@ -4392,7 +4504,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>60</v>
@@ -4405,12 +4517,12 @@
         <v>1434</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
@@ -4423,12 +4535,12 @@
         <v>29.9</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>4</v>
@@ -4441,12 +4553,12 @@
         <v>167.96</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1</v>
@@ -4479,7 +4591,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>12</v>
@@ -4494,7 +4606,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>12</v>
@@ -4509,7 +4621,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
@@ -4524,7 +4636,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>1</v>
@@ -4539,7 +4651,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>2</v>
@@ -4554,7 +4666,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>1</v>
@@ -4569,7 +4681,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>2</v>
@@ -4584,7 +4696,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>1</v>
@@ -4599,7 +4711,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
@@ -4620,7 +4732,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
@@ -4635,7 +4747,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>3</v>
@@ -4650,7 +4762,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>22</v>
@@ -4671,7 +4783,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>270</v>
@@ -4679,7 +4791,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>384</v>
@@ -4744,12 +4856,12 @@
         <v>400</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>6.5</v>
@@ -4760,7 +4872,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
